--- a/time.xlsx
+++ b/time.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17870"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odama\Documents\GitHub\ЛАР\Симулятор\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odama\Documents\GitHub\LAR\Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Продумываю общую структуру, выбираю компоненты</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Задачи</t>
+  </si>
+  <si>
+    <t>Заготовка физического движка</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,6 +437,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42797</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/time.xlsx
+++ b/time.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17870"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Продумываю общую структуру, выбираю компоненты</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Заготовка физического движка</t>
+  </si>
+  <si>
+    <t>Физический движок</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +442,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>42797</v>
+        <v>42809</v>
       </c>
       <c r="B3" s="1">
         <v>0.8125</v>
@@ -449,6 +452,20 @@
       </c>
       <c r="D3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42810</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/time.xlsx
+++ b/time.xlsx
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,6 +467,20 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42811</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time.xlsx
+++ b/time.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Продумываю общую структуру, выбираю компоненты</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Физический движок</t>
+  </si>
+  <si>
+    <t>Поставил двигатель</t>
+  </si>
+  <si>
+    <t>Тестирование двигателя</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +486,29 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
+      <c r="A6" s="2">
+        <v>42813</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42815</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time.xlsx
+++ b/time.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +505,9 @@
       </c>
       <c r="B7" s="1">
         <v>0.58333333333333337</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>

--- a/time.xlsx
+++ b/time.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Продумываю общую структуру, выбираю компоненты</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Тестирование двигателя</t>
+  </si>
+  <si>
+    <t>Портирование</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +514,20 @@
       </c>
       <c r="D7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42816</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
